--- a/source_data/Other/cycles_2.xlsx
+++ b/source_data/Other/cycles_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/python/usdm_data/source_data/Other/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF1CA28D-0992-874D-9575-2CB092D98FC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3153FD51-1609-384D-9360-4DF22FBD61DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22040" yWindow="4340" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="11" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
+    <workbookView xWindow="22040" yWindow="4340" windowWidth="33600" windowHeight="19480" firstSheet="4" activeTab="13" xr2:uid="{36865AF5-732C-8F40-95E5-FB8DDE1499F2}"/>
   </bookViews>
   <sheets>
     <sheet name="study" sheetId="2" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="258">
   <si>
     <t>Epoch</t>
   </si>
@@ -820,6 +820,9 @@
   </si>
   <si>
     <t>A: Within 30 days of last dose</t>
+  </si>
+  <si>
+    <t>ICD-10=1</t>
   </si>
 </sst>
 </file>
@@ -1618,7 +1621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4154CB4E-EAA7-494D-AF71-EA9F1872735B}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
@@ -1987,10 +1990,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329FB390-8E4D-2044-99CB-68022604372C}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2012,6 +2015,14 @@
       </c>
       <c r="B2" t="s">
         <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
